--- a/data/outputs/management_elsevier/82.xlsx
+++ b/data/outputs/management_elsevier/82.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS145"/>
+  <dimension ref="A1:BU145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -935,6 +945,12 @@
           <t>2-s2.0-84945256912</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>3671</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84945243219</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>8190</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1373,6 +1395,12 @@
           <t>2-s2.0-84945250212</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2275</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1598,6 +1626,12 @@
           <t>2-s2.0-84945270064</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1636</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1811,6 +1845,12 @@
           <t>2-s2.0-84945305091</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>4810</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2036,6 +2076,12 @@
           <t>2-s2.0-84945254378</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1964</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2247,6 +2293,12 @@
           <t>2-s2.0-84945271686</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>3519</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2464,6 +2516,12 @@
           <t>2-s2.0-84945264973</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>4810</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2689,6 +2747,12 @@
           <t>2-s2.0-84945269739</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>3877</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2917,6 +2981,12 @@
         <is>
           <t>2-s2.0-84945306876</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>9156</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -3129,6 +3199,12 @@
           <t>2-s2.0-84945279878</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>3735</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3338,6 +3414,12 @@
           <t>2-s2.0-84945258024</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>6815</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3551,6 +3633,12 @@
           <t>2-s2.0-84945251133</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>3277</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3768,6 +3856,12 @@
           <t>2-s2.0-84945251831</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>3006</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3997,6 +4091,12 @@
           <t>2-s2.0-84945315174</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>3475</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4232,6 +4332,12 @@
           <t>2-s2.0-84947573980</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>3374</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4460,6 +4566,12 @@
         <is>
           <t>2-s2.0-84952720034</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>3618</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -4674,6 +4786,12 @@
           <t>2-s2.0-84952719658</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2283</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4901,6 +5019,12 @@
           <t>2-s2.0-84952719747</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>5169</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5134,6 +5258,12 @@
           <t>2-s2.0-84952718407</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>3277</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5363,6 +5493,12 @@
           <t>2-s2.0-84952717647</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2301</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5584,6 +5720,12 @@
           <t>2-s2.0-84952715193</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2497</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5795,6 +5937,12 @@
           <t>2-s2.0-84952719071</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>2153</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6026,6 +6174,12 @@
           <t>2-s2.0-84952720032</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>6277</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6251,6 +6405,12 @@
           <t>2-s2.0-84952717372</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>5034</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6469,6 +6629,12 @@
         <is>
           <t>2-s2.0-84952714551</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>2366</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -6677,6 +6843,12 @@
           <t>2-s2.0-84937874672</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>4650</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6898,6 +7070,12 @@
           <t>2-s2.0-84937956175</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>4308</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7113,6 +7291,12 @@
           <t>2-s2.0-84937902620</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>2696</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7334,6 +7518,12 @@
           <t>2-s2.0-84937920408</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>2947</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7555,6 +7745,12 @@
           <t>2-s2.0-84937910780</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>8795</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7770,6 +7966,12 @@
           <t>2-s2.0-84937957391</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>4757</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7991,6 +8193,12 @@
           <t>2-s2.0-84937894882</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>3477</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8216,6 +8424,12 @@
           <t>2-s2.0-84937833417</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>1766</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8429,6 +8643,12 @@
           <t>2-s2.0-84937884103</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>4933</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8654,6 +8874,12 @@
           <t>2-s2.0-84937888538</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>2848</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8869,6 +9095,12 @@
           <t>2-s2.0-84937867616</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1835</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9080,6 +9312,12 @@
           <t>2-s2.0-84937938136</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>778</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9302,6 +9540,12 @@
         <is>
           <t>2-s2.0-84937868409</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>6467</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -9512,6 +9756,12 @@
           <t>2-s2.0-84937953112</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1431</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9719,6 +9969,12 @@
           <t>2-s2.0-84937922421</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>2204</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9928,6 +10184,12 @@
           <t>2-s2.0-84937829297</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>2149</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10143,6 +10405,12 @@
           <t>2-s2.0-84937941078</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>1562</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10362,6 +10630,12 @@
           <t>2-s2.0-84937889664</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>2285</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10583,6 +10857,12 @@
           <t>2-s2.0-84951287810</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>10020</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10798,6 +11078,12 @@
           <t>2-s2.0-84949536913</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>4595</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11023,6 +11309,12 @@
           <t>2-s2.0-84951284610</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>5724</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11234,6 +11526,12 @@
           <t>2-s2.0-84951292107</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>3147</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11451,6 +11749,12 @@
           <t>2-s2.0-84951286520</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>5649</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11667,6 +11971,12 @@
         <is>
           <t>2-s2.0-84951284919</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>1856</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -11873,6 +12183,12 @@
           <t>2-s2.0-84944318429</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>3538</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12082,6 +12398,12 @@
           <t>2-s2.0-84944460702</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>9053</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12298,6 +12620,12 @@
         <is>
           <t>2-s2.0-84951293941</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>3074</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -12492,6 +12820,12 @@
         <v>3976052</v>
       </c>
       <c r="BS55" t="inlineStr"/>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12721,6 +13055,12 @@
           <t>2-s2.0-84929145290</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>3130</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12950,6 +13290,12 @@
           <t>2-s2.0-84929193367</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>8741</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13171,6 +13517,12 @@
           <t>2-s2.0-84929144342</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2514</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13392,6 +13744,12 @@
           <t>2-s2.0-84929207593</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1935</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13615,6 +13973,12 @@
           <t>2-s2.0-84929170642</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1993</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13828,6 +14192,12 @@
           <t>2-s2.0-84929223603</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>4345</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14045,6 +14415,12 @@
           <t>2-s2.0-84929274810</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>2869</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14262,6 +14638,12 @@
           <t>2-s2.0-84929177199</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>1965</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14487,6 +14869,12 @@
           <t>2-s2.0-84929224815</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1129</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14704,6 +15092,12 @@
           <t>2-s2.0-84926359172</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>3927</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14933,6 +15327,12 @@
           <t>2-s2.0-84926409248</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>10422</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15146,6 +15546,12 @@
           <t>2-s2.0-84926421534</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>5841</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15359,6 +15765,12 @@
           <t>2-s2.0-84926419039</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>2385</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15574,6 +15986,12 @@
           <t>2-s2.0-84926365825</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>2601</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15797,6 +16215,12 @@
           <t>2-s2.0-84926409652</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>4452</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16022,6 +16446,12 @@
           <t>2-s2.0-84926419604</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>6565</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16251,6 +16681,12 @@
           <t>2-s2.0-84926290378</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>11227</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16472,6 +16908,12 @@
           <t>2-s2.0-84926357264</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>1829</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16701,6 +17143,12 @@
           <t>2-s2.0-84926420188</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>16110</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16918,6 +17366,12 @@
           <t>2-s2.0-84925831647</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>4638</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17135,6 +17589,12 @@
           <t>2-s2.0-84925816252</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>2657</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17352,6 +17812,12 @@
           <t>2-s2.0-84925822113</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>2431</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17577,6 +18043,12 @@
           <t>2-s2.0-84925709902</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>1987</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17794,6 +18266,12 @@
           <t>2-s2.0-84925728351</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>2664</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18017,6 +18495,12 @@
           <t>2-s2.0-84925698256</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>4667</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18234,6 +18718,12 @@
           <t>2-s2.0-84925806286</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>3192</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18451,6 +18941,12 @@
           <t>2-s2.0-84925787736</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>4372</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18668,6 +19164,12 @@
           <t>2-s2.0-84925760701</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>5225</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18893,6 +19395,12 @@
           <t>2-s2.0-84925765951</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>5949</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19118,6 +19626,12 @@
           <t>2-s2.0-84925728959</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>21186</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19331,6 +19845,12 @@
           <t>2-s2.0-84925868653</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>3617</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19548,6 +20068,12 @@
           <t>2-s2.0-84925859616</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>2640</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19773,6 +20299,12 @@
           <t>2-s2.0-84923207948</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>2326</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19990,6 +20522,12 @@
           <t>2-s2.0-84923205771</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>2456</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -20219,6 +20757,12 @@
           <t>2-s2.0-84923128373</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>6597</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20438,6 +20982,12 @@
           <t>2-s2.0-84923257292</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>3157</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20655,6 +21205,12 @@
           <t>2-s2.0-84923169809</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>7469</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20878,6 +21434,12 @@
           <t>2-s2.0-84923169575</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>6340</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -21103,6 +21665,12 @@
           <t>2-s2.0-84923171950</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>4249</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21325,6 +21893,12 @@
         <is>
           <t>2-s2.0-84923169607</t>
         </is>
+      </c>
+      <c r="BT95" t="n">
+        <v>1802</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -21535,6 +22109,12 @@
           <t>2-s2.0-84923175275</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>2899</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21754,6 +22334,12 @@
           <t>2-s2.0-84923129158</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>3358</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21979,6 +22565,12 @@
           <t>2-s2.0-84923141963</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>6762</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -22198,6 +22790,12 @@
           <t>2-s2.0-84923222988</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>6276</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22416,6 +23014,12 @@
         <is>
           <t>2-s2.0-84923163379</t>
         </is>
+      </c>
+      <c r="BT100" t="n">
+        <v>4395</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="101">
@@ -22626,6 +23230,12 @@
           <t>2-s2.0-84923197079</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>4350</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22855,6 +23465,12 @@
           <t>2-s2.0-84923169191</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>7895</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -23068,6 +23684,12 @@
           <t>2-s2.0-84923212624</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>1156</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -23285,6 +23907,12 @@
           <t>2-s2.0-84923228152</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>3491</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23508,6 +24136,12 @@
           <t>2-s2.0-84923169548</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>6473</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23720,6 +24354,12 @@
         <is>
           <t>2-s2.0-84920720839</t>
         </is>
+      </c>
+      <c r="BT106" t="n">
+        <v>3225</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -23930,6 +24570,12 @@
           <t>2-s2.0-84920699779</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>2912</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -24145,6 +24791,12 @@
           <t>2-s2.0-84920741591</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>1437</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24361,6 +25013,12 @@
         <is>
           <t>2-s2.0-84920672275</t>
         </is>
+      </c>
+      <c r="BT109" t="n">
+        <v>2337</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="110">
@@ -24569,6 +25227,12 @@
           <t>2-s2.0-84920664216</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>3787</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24789,6 +25453,12 @@
         <is>
           <t>2-s2.0-85027923031</t>
         </is>
+      </c>
+      <c r="BT111" t="n">
+        <v>8990</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="112">
@@ -25003,6 +25673,12 @@
           <t>2-s2.0-84920704745</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>3810</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -25218,6 +25894,12 @@
           <t>2-s2.0-84920653799</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>7343</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25439,6 +26121,12 @@
           <t>2-s2.0-84920653927</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>2640</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25656,6 +26344,12 @@
           <t>2-s2.0-84920659894</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>2167</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25867,6 +26561,12 @@
           <t>2-s2.0-84920680652</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>2553</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -26083,6 +26783,12 @@
         <is>
           <t>2-s2.0-84920665412</t>
         </is>
+      </c>
+      <c r="BT117" t="n">
+        <v>6825</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -26291,6 +26997,12 @@
           <t>2-s2.0-84920654091</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>3234</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26498,6 +27210,12 @@
           <t>2-s2.0-84920692252</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>2949</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26714,6 +27432,12 @@
         <is>
           <t>2-s2.0-84920706292</t>
         </is>
+      </c>
+      <c r="BT120" t="n">
+        <v>12183</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="121">
@@ -26922,6 +27646,12 @@
           <t>2-s2.0-84920741448</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>2697</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -27131,6 +27861,12 @@
           <t>2-s2.0-84920702420</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -27341,6 +28077,12 @@
         <is>
           <t>2-s2.0-84920708246</t>
         </is>
+      </c>
+      <c r="BT123" t="n">
+        <v>5516</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="124">
@@ -27555,6 +28297,12 @@
           <t>2-s2.0-84916878321</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>1848</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27772,6 +28520,12 @@
           <t>2-s2.0-84916941714</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>14527</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27989,6 +28743,12 @@
           <t>2-s2.0-84916941920</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>9873</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -28206,6 +28966,12 @@
           <t>2-s2.0-85027941951</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>3564</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28426,6 +29192,12 @@
         <is>
           <t>2-s2.0-84916878132</t>
         </is>
+      </c>
+      <c r="BT128" t="n">
+        <v>8313</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="129">
@@ -28636,6 +29408,12 @@
           <t>2-s2.0-85027944090</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>2157</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28853,6 +29631,12 @@
           <t>2-s2.0-85028151684</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>3636</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -29065,6 +29849,12 @@
         <is>
           <t>2-s2.0-84916891707</t>
         </is>
+      </c>
+      <c r="BT131" t="n">
+        <v>2849</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="132">
@@ -29273,6 +30063,12 @@
           <t>2-s2.0-84916623266</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>4987</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29484,6 +30280,12 @@
           <t>2-s2.0-84916938802</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>5291</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29700,6 +30502,12 @@
         <is>
           <t>2-s2.0-84916927937</t>
         </is>
+      </c>
+      <c r="BT134" t="n">
+        <v>2492</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="135">
@@ -29908,6 +30716,12 @@
           <t>2-s2.0-85027935768</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>3168</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -30119,6 +30933,12 @@
           <t>2-s2.0-84916631673</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>2901</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -30340,6 +31160,12 @@
           <t>2-s2.0-85027936016</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>4244</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30554,6 +31380,12 @@
         <is>
           <t>2-s2.0-84916942754</t>
         </is>
+      </c>
+      <c r="BT138" t="n">
+        <v>2929</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="139">
@@ -30762,6 +31594,12 @@
           <t>2-s2.0-84916601447</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>1618</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30973,6 +31811,12 @@
           <t>2-s2.0-84916629439</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>2276</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -31190,6 +32034,12 @@
           <t>2-s2.0-84916603395</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>5648</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31403,6 +32253,12 @@
           <t>2-s2.0-84916878702</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>4081</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31623,6 +32479,12 @@
         <is>
           <t>2-s2.0-85028169707</t>
         </is>
+      </c>
+      <c r="BT143" t="n">
+        <v>5084</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="144">
@@ -31833,6 +32695,12 @@
           <t>2-s2.0-84916628571</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>3798</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -32040,6 +32908,12 @@
           <t>2-s2.0-84916640923</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>8194</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
